--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_3_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_3_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_14</t>
+          <t>model_3_8_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9585578606828663</v>
+        <v>0.9301126013819397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7797474203269653</v>
+        <v>0.8063108927141456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4294813469749321</v>
+        <v>0.8218302913619044</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9478572451075785</v>
+        <v>0.6932220043525201</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8479206381779604</v>
+        <v>0.8546032262597558</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2771237764371784</v>
+        <v>0.4673373563608498</v>
       </c>
       <c r="H2" t="n">
-        <v>1.472830014443459</v>
+        <v>1.295199952276842</v>
       </c>
       <c r="I2" t="n">
-        <v>0.315993247572658</v>
+        <v>0.1039864214582264</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1169847924945366</v>
+        <v>0.5828629955815589</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2164889750141253</v>
+        <v>0.3434247721661173</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7032432550135854</v>
+        <v>1.00999239534481</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5264254709236421</v>
+        <v>0.6836207694042434</v>
       </c>
       <c r="N2" t="n">
-        <v>1.026881387665168</v>
+        <v>1.045332366671174</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5488364930718145</v>
+        <v>0.7127239208478623</v>
       </c>
       <c r="P2" t="n">
-        <v>124.5665820525146</v>
+        <v>123.5214077832347</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.9180073694748</v>
+        <v>197.8728331001949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_13</t>
+          <t>model_3_8_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9581554257652902</v>
+        <v>0.9307004867324137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7797446053133741</v>
+        <v>0.8063018603589226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4404580605675877</v>
+        <v>0.8165162697488866</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9494136622799634</v>
+        <v>0.6843738632082399</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8512823763920354</v>
+        <v>0.8503880627445808</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2798148605840524</v>
+        <v>0.4634061643152675</v>
       </c>
       <c r="H3" t="n">
-        <v>1.472848838452306</v>
+        <v>1.295260351677807</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3099135736523983</v>
+        <v>0.1070878807091467</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1134928952919043</v>
+        <v>0.5996740254658853</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2117034521692665</v>
+        <v>0.3533809185963542</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7139355805532486</v>
+        <v>1.006443642414176</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5289752929807331</v>
+        <v>0.6807394246811826</v>
       </c>
       <c r="N3" t="n">
-        <v>1.027142426530623</v>
+        <v>1.044951035633029</v>
       </c>
       <c r="O3" t="n">
-        <v>0.551494866332735</v>
+        <v>0.7097199113147349</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5472542134198</v>
+        <v>123.5383027294176</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.89867953038</v>
+        <v>197.8897280463778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_15</t>
+          <t>model_3_8_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9589392619580168</v>
+        <v>0.9294906546520819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7797339303843586</v>
+        <v>0.8062901741406669</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4178741299440869</v>
+        <v>0.8264338492737474</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9462991298610787</v>
+        <v>0.702016847613911</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8444347080182274</v>
+        <v>0.8587092817421884</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2745733443540552</v>
+        <v>0.4714963170072109</v>
       </c>
       <c r="H4" t="n">
-        <v>1.472920221751786</v>
+        <v>1.295338497473093</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3224221385219891</v>
+        <v>0.1012996150594989</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1204804994085731</v>
+        <v>0.5661532290346285</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2214512883629578</v>
+        <v>0.3337263371026606</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6921885454721705</v>
+        <v>1.013546113156113</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5239974659805667</v>
+        <v>0.6866558941764141</v>
       </c>
       <c r="N4" t="n">
-        <v>1.026633992243449</v>
+        <v>1.045735791577028</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5463051229316492</v>
+        <v>0.7158882571651587</v>
       </c>
       <c r="P4" t="n">
-        <v>124.5850737223509</v>
+        <v>123.5036879763291</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9364990393112</v>
+        <v>197.8551132932894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_12</t>
+          <t>model_3_8_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9577312570634365</v>
+        <v>0.9312554705259475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7797248151745138</v>
+        <v>0.8062642539400211</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4507706216388888</v>
+        <v>0.8105246865102442</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9509674340539622</v>
+        <v>0.6754757817520891</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8545131621618612</v>
+        <v>0.8460690530095487</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2826512786464646</v>
+        <v>0.4596949851324419</v>
       </c>
       <c r="H5" t="n">
-        <v>1.47298117520199</v>
+        <v>1.295511825974163</v>
       </c>
       <c r="I5" t="n">
-        <v>0.304201753983693</v>
+        <v>0.1105847899459522</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1100069331684965</v>
+        <v>0.6165799394689889</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2071043435760948</v>
+        <v>0.363582348078459</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7284516152356946</v>
+        <v>1.002906113515821</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5316495825696326</v>
+        <v>0.6780081010817216</v>
       </c>
       <c r="N5" t="n">
-        <v>1.027417562985879</v>
+        <v>1.044591046145331</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5542830059659766</v>
+        <v>0.7068723096150255</v>
       </c>
       <c r="P5" t="n">
-        <v>124.5270827441818</v>
+        <v>123.55438417046</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.878508061142</v>
+        <v>197.9058094874203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_16</t>
+          <t>model_3_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9593003725613173</v>
+        <v>0.92883361449906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7797048212065487</v>
+        <v>0.8062383477150343</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4056717738994521</v>
+        <v>0.8302929712690569</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9447391807225382</v>
+        <v>0.7107532099531355</v>
       </c>
       <c r="F6" t="n">
-        <v>0.840831542047566</v>
+        <v>0.8626997440737267</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2721585960870238</v>
+        <v>0.47588994753586</v>
       </c>
       <c r="H6" t="n">
-        <v>1.473114874957836</v>
+        <v>1.295685061019937</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3291806592016146</v>
+        <v>0.09904728895238217</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1239803207480997</v>
+        <v>0.5495545733429809</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2265804899748571</v>
+        <v>0.3243009311476815</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6803932891029469</v>
+        <v>1.017103262950743</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5216882173166495</v>
+        <v>0.6898477712770115</v>
       </c>
       <c r="N6" t="n">
-        <v>1.026399758338605</v>
+        <v>1.046161979784394</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5438975647713052</v>
+        <v>0.7192160190820249</v>
       </c>
       <c r="P6" t="n">
-        <v>124.6027406175166</v>
+        <v>123.4851373082759</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.9541659344768</v>
+        <v>197.8365626252361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_11</t>
+          <t>model_3_8_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9572844798944801</v>
+        <v>0.9317785528320119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.779687250515916</v>
+        <v>0.80619927079582</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4603812642942305</v>
+        <v>0.8038880013683851</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9525186749249369</v>
+        <v>0.6665340253383352</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8576053217690911</v>
+        <v>0.8416527769104336</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2856388796324963</v>
+        <v>0.4561971313432164</v>
       </c>
       <c r="H7" t="n">
-        <v>1.473232370247002</v>
+        <v>1.295946368558656</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2988787059679636</v>
+        <v>0.1144582044759649</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1065266492484308</v>
+        <v>0.6335688337281135</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2027025729746859</v>
+        <v>0.3740135191020392</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7480293603050521</v>
+        <v>0.9993796801608837</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5344519432395174</v>
+        <v>0.6754236680360086</v>
       </c>
       <c r="N7" t="n">
-        <v>1.02770736439277</v>
+        <v>1.044251749514371</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5572046689312647</v>
+        <v>0.7041778519040426</v>
       </c>
       <c r="P7" t="n">
-        <v>124.50605384923</v>
+        <v>123.5696605146153</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.8574791661902</v>
+        <v>197.9210858315756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_17</t>
+          <t>model_3_8_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9596418170599139</v>
+        <v>0.9281400841078011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7796607023121307</v>
+        <v>0.8061541112757817</v>
       </c>
       <c r="D8" t="n">
-        <v>0.392907049192926</v>
+        <v>0.8333714238576866</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9431770147822098</v>
+        <v>0.7194245591415125</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8371172666005249</v>
+        <v>0.8665676442904164</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2698753551527006</v>
+        <v>0.4805275884556219</v>
       </c>
       <c r="H8" t="n">
-        <v>1.473409898207958</v>
+        <v>1.296248350477093</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3362506590920633</v>
+        <v>0.0972505903397653</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1274851155896529</v>
+        <v>0.5330794394175382</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2318678588513194</v>
+        <v>0.3151650148786518</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6679103055598778</v>
+        <v>1.020663828520382</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5194952888647794</v>
+        <v>0.6932009726303202</v>
       </c>
       <c r="N8" t="n">
-        <v>1.026178280826002</v>
+        <v>1.04661183733548</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5416112788152514</v>
+        <v>0.7227119731590277</v>
       </c>
       <c r="P8" t="n">
-        <v>124.6195901483168</v>
+        <v>123.4657412721586</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.971015465277</v>
+        <v>197.8171665891188</v>
       </c>
     </row>
     <row r="9">
@@ -907,987 +907,327 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9568144713701333</v>
+        <v>0.9322709281411672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7796311174627687</v>
+        <v>0.8061080163233896</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4692534032890745</v>
+        <v>0.7966352043275443</v>
       </c>
       <c r="E9" t="n">
-        <v>0.954065784251472</v>
+        <v>0.6575525107283607</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8605502763537872</v>
+        <v>0.8371443735394175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2887818287989933</v>
+        <v>0.4529046153837151</v>
       </c>
       <c r="H9" t="n">
-        <v>1.473607732231867</v>
+        <v>1.296556587635986</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2939646930798108</v>
+        <v>0.1186912046621626</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1030556346481384</v>
+        <v>0.6506332665906478</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1985103525979983</v>
+        <v>0.3846622932164513</v>
       </c>
       <c r="L9" t="n">
-        <v>0.766854440513974</v>
+        <v>0.9958624096263461</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5373842468839157</v>
+        <v>0.6729818833993342</v>
       </c>
       <c r="N9" t="n">
-        <v>1.02801223478694</v>
+        <v>1.043932370935459</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5602618068125105</v>
+        <v>0.701632115440194</v>
       </c>
       <c r="P9" t="n">
-        <v>124.4841675872281</v>
+        <v>123.5841474754745</v>
       </c>
       <c r="Q9" t="n">
-        <v>198.8355929041884</v>
+        <v>197.9355727924348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_18</t>
+          <t>model_3_8_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9599641875890383</v>
+        <v>0.9274090072770903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7796021103981654</v>
+        <v>0.8060359973254209</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3796063080745526</v>
+        <v>0.8356289622134105</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9416122938224156</v>
+        <v>0.7280272914193574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8332967569060701</v>
+        <v>0.8703065182399901</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2677196619400656</v>
+        <v>0.4854163025888842</v>
       </c>
       <c r="H10" t="n">
-        <v>1.473801702606435</v>
+        <v>1.29703817900702</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3436175424688515</v>
+        <v>0.09593300758840508</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1309956427409521</v>
+        <v>0.5167346742231899</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2373064549755712</v>
+        <v>0.3063338565161968</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6547699005800064</v>
+        <v>1.024223727750108</v>
       </c>
       <c r="M10" t="n">
-        <v>0.517416333275309</v>
+        <v>0.6967182375888292</v>
       </c>
       <c r="N10" t="n">
-        <v>1.025969175617921</v>
+        <v>1.047086049333779</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5394438177823059</v>
+        <v>0.7263789753685627</v>
       </c>
       <c r="P10" t="n">
-        <v>124.6356297669749</v>
+        <v>123.445496800736</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.9870550839351</v>
+        <v>197.7969221176963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_9</t>
+          <t>model_3_8_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9563202066652867</v>
+        <v>0.9327334919090027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7795556141045031</v>
+        <v>0.805991594346197</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4773446161769386</v>
+        <v>0.7887940503787858</v>
       </c>
       <c r="E11" t="n">
-        <v>0.955608337972303</v>
+        <v>0.6485359698138022</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8633400822648719</v>
+        <v>0.8325492631557871</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2920869791561824</v>
+        <v>0.4498114493382892</v>
       </c>
       <c r="H11" t="n">
-        <v>1.47411262353625</v>
+        <v>1.297335101933546</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2894832118457071</v>
+        <v>0.123267591666817</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09959484076957556</v>
+        <v>0.6677642476968751</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1945389904424559</v>
+        <v>0.3955158678590063</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7848793145958282</v>
+        <v>0.9923613773172005</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5404507185268443</v>
+        <v>0.6706798411599153</v>
       </c>
       <c r="N11" t="n">
-        <v>1.028332838919814</v>
+        <v>1.043632329572539</v>
       </c>
       <c r="O11" t="n">
-        <v>0.56345882450175</v>
+        <v>0.6992320704967586</v>
       </c>
       <c r="P11" t="n">
-        <v>124.4614072944938</v>
+        <v>123.5978535709878</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.8128326114541</v>
+        <v>197.949278887948</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_19</t>
+          <t>model_3_8_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9602681871722555</v>
+        <v>0.9266389599952873</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7795296402548186</v>
+        <v>0.8058826239180618</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3658045225708787</v>
+        <v>0.8370252648373225</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9400446783100411</v>
+        <v>0.7365546013820128</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8293764103305483</v>
+        <v>0.8739086281620134</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2656868153273033</v>
+        <v>0.4905656123080424</v>
       </c>
       <c r="H12" t="n">
-        <v>1.474286310788689</v>
+        <v>1.29806378768825</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3512619393706571</v>
+        <v>0.09511807381406603</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1345126639609605</v>
+        <v>0.5005332076916819</v>
       </c>
       <c r="K12" t="n">
-        <v>0.242887171528209</v>
+        <v>0.2978257325223437</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6462961278117271</v>
+        <v>1.027780451155538</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5154481693898071</v>
+        <v>0.7004038922707686</v>
       </c>
       <c r="N12" t="n">
-        <v>1.025771986699078</v>
+        <v>1.047585539462516</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5373918650855373</v>
+        <v>0.7302215360006692</v>
       </c>
       <c r="P12" t="n">
-        <v>124.6508740997029</v>
+        <v>123.4243924854985</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.0022994166631</v>
+        <v>197.7758178024587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_8</t>
+          <t>model_3_8_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9558007649604899</v>
+        <v>0.9331672295222859</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7794597721496224</v>
+        <v>0.8058509951413779</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4846139431043889</v>
+        <v>0.780391260346762</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9571442050268347</v>
+        <v>0.6394878464469156</v>
       </c>
       <c r="F13" t="n">
-        <v>0.865964596455267</v>
+        <v>0.8278719674422974</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2955604882279673</v>
+        <v>0.4469110439210858</v>
       </c>
       <c r="H13" t="n">
-        <v>1.47475351912985</v>
+        <v>1.298275289463573</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2854569487055054</v>
+        <v>0.1281717702299073</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09614904875025718</v>
+        <v>0.6849552338980992</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1908029254025886</v>
+        <v>0.4065635628899047</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8020555384998819</v>
+        <v>0.9888752628477749</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5436547509476647</v>
+        <v>0.6685140566368712</v>
       </c>
       <c r="N13" t="n">
-        <v>1.028669774079682</v>
+        <v>1.043350986255815</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5667992592159861</v>
+        <v>0.6969740840427765</v>
       </c>
       <c r="P13" t="n">
-        <v>124.4377635303775</v>
+        <v>123.610791422122</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.7891888473378</v>
+        <v>197.9622167390823</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_8_20</t>
+          <t>model_3_8_0</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9605542693464886</v>
+        <v>0.9258286626369143</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7794437159398322</v>
+        <v>0.8056923279265498</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3515261848437693</v>
+        <v>0.8375155142071328</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9384732176219237</v>
+        <v>0.7450014777983154</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8253602816205101</v>
+        <v>0.8773665077714725</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2637737825109194</v>
+        <v>0.4959840744745592</v>
       </c>
       <c r="H14" t="n">
-        <v>1.474860887078649</v>
+        <v>1.299336297859723</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3591702843203011</v>
+        <v>0.09483194617778938</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1380383120187208</v>
+        <v>0.4844845609139943</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2486042364707775</v>
+        <v>0.2896582781386731</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6393817788593356</v>
+        <v>1.031328166442554</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5135891183727702</v>
+        <v>0.7042613680123021</v>
       </c>
       <c r="N14" t="n">
-        <v>1.025586419883359</v>
+        <v>1.048111137749029</v>
       </c>
       <c r="O14" t="n">
-        <v>0.535453670417939</v>
+        <v>0.7342432324705953</v>
       </c>
       <c r="P14" t="n">
-        <v>124.665326855199</v>
+        <v>123.4024229213738</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.0167521721592</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_21</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.960823034516727</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7793449402094749</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.3367994464556214</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9368971937501869</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.8212533291665262</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.2619765485799857</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.475521400842368</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.3673269850079109</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1415741977996303</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.2544505914037706</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.6366097493132926</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.5118364471000338</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.02541208571888</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.5336263843005925</v>
-      </c>
-      <c r="P15" t="n">
-        <v>124.6790005769278</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>199.0304258938881</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_7</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9552552423808528</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7793426079490532</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4910184341971888</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9586713870299488</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8684139858411029</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2992084002299016</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.475536996678547</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.2819096923121634</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.09272274206384794</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.1873161551321387</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.8183424910468188</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.5469994517638035</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.029023626563771</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.5702863508703532</v>
-      </c>
-      <c r="P16" t="n">
-        <v>124.4132299152825</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>198.7646552322427</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_22</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.961074892669319</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7792336887609034</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.3216455665231994</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9353146856132917</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.817058197666092</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2602923719539028</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.476265339791232</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.3757202666434576</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.1451246313430355</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.2604224715306824</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.654058577976393</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.5101885650952036</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.02524871826855</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.5319083485472306</v>
-      </c>
-      <c r="P17" t="n">
-        <v>124.6918995444732</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>199.0433248614334</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_6</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9546826342938227</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7792031257278571</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4965096330206681</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9601879641089619</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.870677327001065</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.3030374331444894</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.476469714933942</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2788682812380506</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.08932022803756844</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1840942294089044</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.8336827020805987</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.5504883587729076</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.029395048025628</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.5739237878738679</v>
-      </c>
-      <c r="P18" t="n">
-        <v>124.3877978787449</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>198.7392231957051</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_23</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9613104660384815</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7791104079622505</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3060958661621882</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9337263199721465</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.8127815593118813</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.2587170917495978</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.477089719059479</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.3843327813961379</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.1486882064805245</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.2665103788095975</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.6718357762297678</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.5086424006604225</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.025095913920985</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.5302963606914594</v>
-      </c>
-      <c r="P19" t="n">
-        <v>124.7040402482698</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>199.05546556523</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_5</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9540818483299411</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7790401186692905</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5010398912126821</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9616909562976275</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.8727430011826878</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.3070548916513307</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.477559743885156</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2763591064882914</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.08594819236981929</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1811536878328821</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.8480405374585367</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.5541253392972845</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.029784747029227</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.5777156021887551</v>
-      </c>
-      <c r="P20" t="n">
-        <v>124.3614574944212</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>198.7128828113814</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_24</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9615301016360119</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7789755091191217</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.2901707965523666</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9321297933324616</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.8084253381311931</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2572483874975824</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.477991788244634</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.3931532019680961</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.1522700912129455</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.2727115743370063</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.6899115523095144</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.5071965964964498</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.024953447587452</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.528789005650999</v>
-      </c>
-      <c r="P21" t="n">
-        <v>124.7154263450372</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>199.0668516619974</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_4</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9534517151790258</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7788524637975967</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5045612054122074</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9631769193077848</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.8745990642854431</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.3112685949329976</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.478814592876244</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.2744087556912898</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.08261436248767245</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.1785115331455995</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.8613646745301005</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.5579145050390765</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.030193482046037</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.5816660805608296</v>
-      </c>
-      <c r="P22" t="n">
-        <v>124.3341981804623</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>198.6856234974225</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_3</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9527910447479564</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7786388488987469</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5070183911602852</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9646419661846866</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.8762315919525993</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.3156865011476671</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.480243036688458</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.2730477938711857</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.07932745896209695</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1761875870354204</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.8736230745085001</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.5618598589930296</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.030622025028353</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.5857793964006111</v>
-      </c>
-      <c r="P23" t="n">
-        <v>124.306011285626</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>198.6574366025862</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_2</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9520986523917263</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7783980153008716</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5083619914656113</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9660829575249195</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.8776284595145513</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.3203165320219512</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.481853492066387</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.2723036137787935</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.07609452519648827</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.1741991092887073</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.8847706099046093</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.5659651332210768</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.031071144394556</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.5900594406516354</v>
-      </c>
-      <c r="P24" t="n">
-        <v>124.2768912190374</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>198.6283165359976</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9513732070150667</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7781284726481772</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5085313588638747</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9674950989793381</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.8787742390978719</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.3251675885960426</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.483655925026084</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.2722098062338055</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.07292631754503349</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.1725680618894195</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.8947779658803739</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.5702346785280974</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.031541703557795</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.5945107493415531</v>
-      </c>
-      <c r="P25" t="n">
-        <v>124.2468291446786</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>198.5982544616388</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_3_8_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9506134512676073</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7778287851448606</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.507472409281331</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9688738311912708</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8796547046714137</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3302480787776566</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.485659936740696</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.2727963267898459</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.06983306514493978</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.1713146959673928</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.9036178068990934</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5746721489489957</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.032034518096687</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.599137132065099</v>
-      </c>
-      <c r="P26" t="n">
-        <v>124.2158223061507</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>198.5672476231109</v>
+        <v>197.753848238334</v>
       </c>
     </row>
   </sheetData>
